--- a/data/china_sales_2020_2025_update.xlsx
+++ b/data/china_sales_2020_2025_update.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BL34"/>
+  <dimension ref="A1:BM34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,6 +629,9 @@
       <c r="BL1" s="1" t="n">
         <v>45717</v>
       </c>
+      <c r="BM1" s="1" t="n">
+        <v>45717</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -825,6 +828,9 @@
       <c r="BL2" t="n">
         <v>350615</v>
       </c>
+      <c r="BM2" t="n">
+        <v>350615</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -1019,6 +1025,7 @@
         <v>118603</v>
       </c>
       <c r="BL3" t="inlineStr"/>
+      <c r="BM3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -1215,6 +1222,9 @@
       <c r="BL4" t="n">
         <v>58906</v>
       </c>
+      <c r="BM4" t="n">
+        <v>58906</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -1409,6 +1419,9 @@
         <v>126642</v>
       </c>
       <c r="BL5" t="n">
+        <v>134619</v>
+      </c>
+      <c r="BM5" t="n">
         <v>134619</v>
       </c>
     </row>
@@ -1525,6 +1538,9 @@
       <c r="BL6" t="n">
         <v>43171</v>
       </c>
+      <c r="BM6" t="n">
+        <v>43171</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -1719,6 +1735,7 @@
         <v>16688</v>
       </c>
       <c r="BL7" t="inlineStr"/>
+      <c r="BM7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -1915,6 +1932,9 @@
       <c r="BL8" t="n">
         <v>128592</v>
       </c>
+      <c r="BM8" t="n">
+        <v>128592</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -2111,6 +2131,9 @@
       <c r="BL9" t="n">
         <v>122795</v>
       </c>
+      <c r="BM9" t="n">
+        <v>122795</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -2307,6 +2330,9 @@
       <c r="BL10" t="n">
         <v>54020</v>
       </c>
+      <c r="BM10" t="n">
+        <v>54020</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -2503,6 +2529,9 @@
       <c r="BL11" t="n">
         <v>120896</v>
       </c>
+      <c r="BM11" t="n">
+        <v>120896</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -2699,6 +2728,9 @@
       <c r="BL12" t="n">
         <v>84771</v>
       </c>
+      <c r="BM12" t="n">
+        <v>84771</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -2891,6 +2923,9 @@
       <c r="BL13" t="n">
         <v>78828</v>
       </c>
+      <c r="BM13" t="n">
+        <v>78828</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -3083,6 +3118,9 @@
         <v>45671</v>
       </c>
       <c r="BL14" t="n">
+        <v>54507</v>
+      </c>
+      <c r="BM14" t="n">
         <v>54507</v>
       </c>
     </row>
@@ -3197,6 +3235,9 @@
       <c r="BL15" t="n">
         <v>25540</v>
       </c>
+      <c r="BM15" t="n">
+        <v>25540</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -3393,6 +3434,9 @@
       <c r="BL16" t="n">
         <v>53018</v>
       </c>
+      <c r="BM16" t="n">
+        <v>53018</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -3587,6 +3631,9 @@
         <v>43301</v>
       </c>
       <c r="BL17" t="n">
+        <v>52732</v>
+      </c>
+      <c r="BM17" t="n">
         <v>52732</v>
       </c>
     </row>
@@ -3701,6 +3748,9 @@
       <c r="BL18" t="n">
         <v>17381</v>
       </c>
+      <c r="BM18" t="n">
+        <v>17381</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -3897,6 +3947,9 @@
       <c r="BL19" t="n">
         <v>49571</v>
       </c>
+      <c r="BM19" t="n">
+        <v>49571</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
@@ -4093,6 +4146,9 @@
       <c r="BL20" t="n">
         <v>18045</v>
       </c>
+      <c r="BM20" t="n">
+        <v>18045</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -4289,6 +4345,9 @@
       <c r="BL21" t="n">
         <v>49136</v>
       </c>
+      <c r="BM21" t="n">
+        <v>49136</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
@@ -4485,6 +4544,9 @@
       <c r="BL22" t="n">
         <v>40173</v>
       </c>
+      <c r="BM22" t="n">
+        <v>40173</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
@@ -4679,6 +4741,9 @@
         <v>27560</v>
       </c>
       <c r="BL23" t="n">
+        <v>38976</v>
+      </c>
+      <c r="BM23" t="n">
         <v>38976</v>
       </c>
     </row>
@@ -4825,6 +4890,9 @@
       <c r="BL24" t="n">
         <v>37095</v>
       </c>
+      <c r="BM24" t="n">
+        <v>37095</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -5003,6 +5071,9 @@
       <c r="BL25" t="n">
         <v>36674</v>
       </c>
+      <c r="BM25" t="n">
+        <v>36674</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -5197,6 +5268,9 @@
         <v>23607</v>
       </c>
       <c r="BL26" t="n">
+        <v>36605</v>
+      </c>
+      <c r="BM26" t="n">
         <v>36605</v>
       </c>
     </row>
@@ -5373,6 +5447,9 @@
       <c r="BL27" t="n">
         <v>33205</v>
       </c>
+      <c r="BM27" t="n">
+        <v>33205</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
@@ -5567,6 +5644,9 @@
         <v>18449</v>
       </c>
       <c r="BL28" t="n">
+        <v>32465</v>
+      </c>
+      <c r="BM28" t="n">
         <v>32465</v>
       </c>
     </row>
@@ -5663,6 +5743,9 @@
       <c r="BL29" t="n">
         <v>29244</v>
       </c>
+      <c r="BM29" t="n">
+        <v>29244</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -5859,6 +5942,9 @@
       <c r="BL30" t="n">
         <v>23615</v>
       </c>
+      <c r="BM30" t="n">
+        <v>23615</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -6055,6 +6141,9 @@
       <c r="BL31" t="n">
         <v>16825</v>
       </c>
+      <c r="BM31" t="n">
+        <v>16825</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -6249,6 +6338,9 @@
         <v>17902</v>
       </c>
       <c r="BL32" t="n">
+        <v>22949</v>
+      </c>
+      <c r="BM32" t="n">
         <v>22949</v>
       </c>
     </row>
@@ -6323,6 +6415,9 @@
       <c r="BL33" t="n">
         <v>24594</v>
       </c>
+      <c r="BM33" t="n">
+        <v>24594</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -6395,6 +6490,9 @@
       <c r="BL34" t="n">
         <v>172951</v>
       </c>
+      <c r="BM34" t="n">
+        <v>172951</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/china_sales_2020_2025_update.xlsx
+++ b/data/china_sales_2020_2025_update.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM34"/>
+  <dimension ref="A1:BL34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,9 +629,6 @@
       <c r="BL1" s="1" t="n">
         <v>45717</v>
       </c>
-      <c r="BM1" s="1" t="n">
-        <v>45717</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -828,9 +825,6 @@
       <c r="BL2" t="n">
         <v>350615</v>
       </c>
-      <c r="BM2" t="n">
-        <v>350615</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -1025,7 +1019,6 @@
         <v>118603</v>
       </c>
       <c r="BL3" t="inlineStr"/>
-      <c r="BM3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -1222,9 +1215,6 @@
       <c r="BL4" t="n">
         <v>58906</v>
       </c>
-      <c r="BM4" t="n">
-        <v>58906</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -1419,9 +1409,6 @@
         <v>126642</v>
       </c>
       <c r="BL5" t="n">
-        <v>134619</v>
-      </c>
-      <c r="BM5" t="n">
         <v>134619</v>
       </c>
     </row>
@@ -1538,9 +1525,6 @@
       <c r="BL6" t="n">
         <v>43171</v>
       </c>
-      <c r="BM6" t="n">
-        <v>43171</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -1735,7 +1719,6 @@
         <v>16688</v>
       </c>
       <c r="BL7" t="inlineStr"/>
-      <c r="BM7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -1932,9 +1915,6 @@
       <c r="BL8" t="n">
         <v>128592</v>
       </c>
-      <c r="BM8" t="n">
-        <v>128592</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -2131,9 +2111,6 @@
       <c r="BL9" t="n">
         <v>122795</v>
       </c>
-      <c r="BM9" t="n">
-        <v>122795</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -2330,9 +2307,6 @@
       <c r="BL10" t="n">
         <v>54020</v>
       </c>
-      <c r="BM10" t="n">
-        <v>54020</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -2529,9 +2503,6 @@
       <c r="BL11" t="n">
         <v>120896</v>
       </c>
-      <c r="BM11" t="n">
-        <v>120896</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -2728,9 +2699,6 @@
       <c r="BL12" t="n">
         <v>84771</v>
       </c>
-      <c r="BM12" t="n">
-        <v>84771</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -2923,9 +2891,6 @@
       <c r="BL13" t="n">
         <v>78828</v>
       </c>
-      <c r="BM13" t="n">
-        <v>78828</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -3118,9 +3083,6 @@
         <v>45671</v>
       </c>
       <c r="BL14" t="n">
-        <v>54507</v>
-      </c>
-      <c r="BM14" t="n">
         <v>54507</v>
       </c>
     </row>
@@ -3235,9 +3197,6 @@
       <c r="BL15" t="n">
         <v>25540</v>
       </c>
-      <c r="BM15" t="n">
-        <v>25540</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -3434,9 +3393,6 @@
       <c r="BL16" t="n">
         <v>53018</v>
       </c>
-      <c r="BM16" t="n">
-        <v>53018</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -3631,9 +3587,6 @@
         <v>43301</v>
       </c>
       <c r="BL17" t="n">
-        <v>52732</v>
-      </c>
-      <c r="BM17" t="n">
         <v>52732</v>
       </c>
     </row>
@@ -3748,9 +3701,6 @@
       <c r="BL18" t="n">
         <v>17381</v>
       </c>
-      <c r="BM18" t="n">
-        <v>17381</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -3947,9 +3897,6 @@
       <c r="BL19" t="n">
         <v>49571</v>
       </c>
-      <c r="BM19" t="n">
-        <v>49571</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
@@ -4146,9 +4093,6 @@
       <c r="BL20" t="n">
         <v>18045</v>
       </c>
-      <c r="BM20" t="n">
-        <v>18045</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -4345,9 +4289,6 @@
       <c r="BL21" t="n">
         <v>49136</v>
       </c>
-      <c r="BM21" t="n">
-        <v>49136</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
@@ -4544,9 +4485,6 @@
       <c r="BL22" t="n">
         <v>40173</v>
       </c>
-      <c r="BM22" t="n">
-        <v>40173</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
@@ -4741,9 +4679,6 @@
         <v>27560</v>
       </c>
       <c r="BL23" t="n">
-        <v>38976</v>
-      </c>
-      <c r="BM23" t="n">
         <v>38976</v>
       </c>
     </row>
@@ -4890,9 +4825,6 @@
       <c r="BL24" t="n">
         <v>37095</v>
       </c>
-      <c r="BM24" t="n">
-        <v>37095</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -5071,9 +5003,6 @@
       <c r="BL25" t="n">
         <v>36674</v>
       </c>
-      <c r="BM25" t="n">
-        <v>36674</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -5268,9 +5197,6 @@
         <v>23607</v>
       </c>
       <c r="BL26" t="n">
-        <v>36605</v>
-      </c>
-      <c r="BM26" t="n">
         <v>36605</v>
       </c>
     </row>
@@ -5447,9 +5373,6 @@
       <c r="BL27" t="n">
         <v>33205</v>
       </c>
-      <c r="BM27" t="n">
-        <v>33205</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
@@ -5644,9 +5567,6 @@
         <v>18449</v>
       </c>
       <c r="BL28" t="n">
-        <v>32465</v>
-      </c>
-      <c r="BM28" t="n">
         <v>32465</v>
       </c>
     </row>
@@ -5743,9 +5663,6 @@
       <c r="BL29" t="n">
         <v>29244</v>
       </c>
-      <c r="BM29" t="n">
-        <v>29244</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -5942,9 +5859,6 @@
       <c r="BL30" t="n">
         <v>23615</v>
       </c>
-      <c r="BM30" t="n">
-        <v>23615</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -6141,9 +6055,6 @@
       <c r="BL31" t="n">
         <v>16825</v>
       </c>
-      <c r="BM31" t="n">
-        <v>16825</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -6338,9 +6249,6 @@
         <v>17902</v>
       </c>
       <c r="BL32" t="n">
-        <v>22949</v>
-      </c>
-      <c r="BM32" t="n">
         <v>22949</v>
       </c>
     </row>
@@ -6415,9 +6323,6 @@
       <c r="BL33" t="n">
         <v>24594</v>
       </c>
-      <c r="BM33" t="n">
-        <v>24594</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -6490,9 +6395,6 @@
       <c r="BL34" t="n">
         <v>172951</v>
       </c>
-      <c r="BM34" t="n">
-        <v>172951</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
